--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1519883.084255913</v>
+        <v>1515624.822029438</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>141.3311946996865</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>315.1636514716173</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.9581905386872</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0.7530123241028832</v>
       </c>
       <c r="S2" t="n">
-        <v>71.02908020571249</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.7043385723319</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,13 +819,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>74.43397359943617</v>
       </c>
       <c r="W4" t="n">
-        <v>117.2453685247125</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9288914861689</v>
+        <v>123.9412341579503</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716173</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.9581905386872</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.7530123241028832</v>
       </c>
       <c r="S5" t="n">
-        <v>102.9541544794488</v>
+        <v>154.9260532011785</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723319</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1557452255192</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>142.0856614682455</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>74.10571100659716</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.4282648842213</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063332</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2609479597986</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>364.5794156080144</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>8.571790898720044</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>54.32649042089665</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>160.3243999861102</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>148.6282353729474</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>109.8058856274578</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>32.4418101585733</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>40.53421095546468</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>108.3613954702479</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>134.1343006978452</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.32649042089668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>58.24570521548602</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4143,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>77.93612009725524</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>33.828918917875</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1584.939258071009</v>
+        <v>1462.069576420617</v>
       </c>
       <c r="C2" t="n">
-        <v>1584.939258071009</v>
+        <v>1462.069576420617</v>
       </c>
       <c r="D2" t="n">
-        <v>1584.939258071009</v>
+        <v>1462.069576420617</v>
       </c>
       <c r="E2" t="n">
-        <v>1199.151005472765</v>
+        <v>1319.310793895681</v>
       </c>
       <c r="F2" t="n">
-        <v>788.1651006831572</v>
+        <v>908.3248891060737</v>
       </c>
       <c r="G2" t="n">
-        <v>371.0652102930876</v>
+        <v>491.224998716004</v>
       </c>
       <c r="H2" t="n">
-        <v>52.71808759448422</v>
+        <v>172.8778760174006</v>
       </c>
       <c r="I2" t="n">
         <v>52.71808759448422</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002345</v>
+        <v>240.3507333903765</v>
       </c>
       <c r="K2" t="n">
-        <v>153.9986274745283</v>
+        <v>321.4042764948814</v>
       </c>
       <c r="L2" t="n">
-        <v>704.9390792031065</v>
+        <v>458.8601258185137</v>
       </c>
       <c r="M2" t="n">
-        <v>1334.573032084381</v>
+        <v>1088.494078699788</v>
       </c>
       <c r="N2" t="n">
-        <v>1959.763123039494</v>
+        <v>1713.6841696549</v>
       </c>
       <c r="O2" t="n">
-        <v>2493.174093780573</v>
+        <v>2258.845806409394</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.201833993</v>
+        <v>2392.009993239694</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.904379724211</v>
@@ -4357,25 +4357,25 @@
         <v>2635.143761215016</v>
       </c>
       <c r="S2" t="n">
-        <v>2563.39721555268</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="T2" t="n">
-        <v>2348.544348307901</v>
+        <v>2420.290893970237</v>
       </c>
       <c r="U2" t="n">
-        <v>2348.544348307901</v>
+        <v>2166.598222025268</v>
       </c>
       <c r="V2" t="n">
-        <v>2348.544348307901</v>
+        <v>1835.535334681697</v>
       </c>
       <c r="W2" t="n">
-        <v>2348.544348307901</v>
+        <v>1835.535334681697</v>
       </c>
       <c r="X2" t="n">
-        <v>1975.078590046821</v>
+        <v>1462.069576420617</v>
       </c>
       <c r="Y2" t="n">
-        <v>1584.939258071009</v>
+        <v>1462.069576420617</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120978</v>
+        <v>966.4318812120982</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309708</v>
+        <v>791.9788519309712</v>
       </c>
       <c r="D3" t="n">
-        <v>643.0444422697196</v>
+        <v>643.0444422697201</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8069872642641</v>
+        <v>483.8069872642645</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911492</v>
+        <v>337.2724292911496</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640338</v>
+        <v>199.8245529640341</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815741</v>
+        <v>98.84600463815775</v>
       </c>
       <c r="I3" t="n">
         <v>52.71808759448422</v>
@@ -4418,16 +4418,16 @@
         <v>884.1039790291093</v>
       </c>
       <c r="M3" t="n">
-        <v>1523.040444009826</v>
+        <v>1172.858345187993</v>
       </c>
       <c r="N3" t="n">
-        <v>1720.045718791133</v>
+        <v>1825.244679169735</v>
       </c>
       <c r="O3" t="n">
-        <v>2267.970957996805</v>
+        <v>1983.246222291445</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.977979877468</v>
+        <v>2406.001465018977</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.904379724211</v>
@@ -4445,7 +4445,7 @@
         <v>2039.648482162597</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.496373930854</v>
+        <v>1804.496373930855</v>
       </c>
       <c r="W3" t="n">
         <v>1550.259017202653</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>519.68400351712</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="C4" t="n">
-        <v>350.7478205892131</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="D4" t="n">
-        <v>200.6311811768773</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="E4" t="n">
         <v>52.71808759448422</v>
@@ -4524,16 +4524,16 @@
         <v>1047.751684421854</v>
       </c>
       <c r="V4" t="n">
-        <v>1047.751684421854</v>
+        <v>972.565852503232</v>
       </c>
       <c r="W4" t="n">
-        <v>929.3220192453771</v>
+        <v>683.1486824662713</v>
       </c>
       <c r="X4" t="n">
-        <v>701.3324683473597</v>
+        <v>455.159131568254</v>
       </c>
       <c r="Y4" t="n">
-        <v>701.3324683473597</v>
+        <v>234.3665524247239</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2063.364745100676</v>
+        <v>1701.91362634561</v>
       </c>
       <c r="C5" t="n">
-        <v>2063.364745100676</v>
+        <v>1332.951109405198</v>
       </c>
       <c r="D5" t="n">
-        <v>1705.099046493925</v>
+        <v>974.6854107984475</v>
       </c>
       <c r="E5" t="n">
-        <v>1319.310793895681</v>
+        <v>588.8971582002032</v>
       </c>
       <c r="F5" t="n">
-        <v>908.3248891060737</v>
+        <v>177.9112534105956</v>
       </c>
       <c r="G5" t="n">
-        <v>491.224998716004</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H5" t="n">
-        <v>172.8778760174006</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I5" t="n">
         <v>52.71808759448422</v>
       </c>
       <c r="J5" t="n">
-        <v>89.50975139385071</v>
+        <v>240.3507333903765</v>
       </c>
       <c r="K5" t="n">
-        <v>491.4672529438087</v>
+        <v>642.3082349403345</v>
       </c>
       <c r="L5" t="n">
-        <v>1042.407704672387</v>
+        <v>986.4264289546404</v>
       </c>
       <c r="M5" t="n">
-        <v>1227.023259395758</v>
+        <v>1171.041983678011</v>
       </c>
       <c r="N5" t="n">
-        <v>1419.239895183006</v>
+        <v>1796.232074633123</v>
       </c>
       <c r="O5" t="n">
         <v>1964.401531937499</v>
@@ -4591,28 +4591,28 @@
         <v>2635.904379724211</v>
       </c>
       <c r="R5" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="S5" t="n">
-        <v>2531.910284290424</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="T5" t="n">
-        <v>2317.057417045645</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="U5" t="n">
-        <v>2063.364745100676</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="V5" t="n">
-        <v>2063.364745100676</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="W5" t="n">
-        <v>2063.364745100676</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="X5" t="n">
-        <v>2063.364745100676</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="Y5" t="n">
-        <v>2063.364745100676</v>
+        <v>2088.513466409731</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120978</v>
+        <v>966.4318812120986</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309708</v>
+        <v>791.9788519309716</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697196</v>
+        <v>643.0444422697203</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642641</v>
+        <v>483.8069872642648</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911492</v>
+        <v>337.2724292911498</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640341</v>
+        <v>199.8245529640342</v>
       </c>
       <c r="H6" t="n">
         <v>98.84600463815775</v>
@@ -4646,25 +4646,25 @@
         <v>52.71808759448422</v>
       </c>
       <c r="J6" t="n">
-        <v>52.71808759448422</v>
+        <v>170.7774263352073</v>
       </c>
       <c r="K6" t="n">
-        <v>119.300560189547</v>
+        <v>499.1804835727229</v>
       </c>
       <c r="L6" t="n">
-        <v>622.2833943866565</v>
+        <v>635.0313759194078</v>
       </c>
       <c r="M6" t="n">
-        <v>1261.219859367373</v>
+        <v>1273.967840900124</v>
       </c>
       <c r="N6" t="n">
-        <v>1643.297497944263</v>
+        <v>1470.973115681431</v>
       </c>
       <c r="O6" t="n">
-        <v>2191.222737149935</v>
+        <v>2018.898354887104</v>
       </c>
       <c r="P6" t="n">
-        <v>2613.977979877468</v>
+        <v>2406.001465018977</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.904379724211</v>
@@ -4682,7 +4682,7 @@
         <v>2039.648482162597</v>
       </c>
       <c r="V6" t="n">
-        <v>1804.496373930854</v>
+        <v>1804.496373930855</v>
       </c>
       <c r="W6" t="n">
         <v>1550.259017202653</v>
@@ -4691,7 +4691,7 @@
         <v>1342.40751699712</v>
       </c>
       <c r="Y6" t="n">
-        <v>1134.647218232166</v>
+        <v>1134.647218232167</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>214.4975534923416</v>
+        <v>866.1032195916147</v>
       </c>
       <c r="C7" t="n">
-        <v>214.4975534923416</v>
+        <v>697.1670366637078</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4975534923416</v>
+        <v>547.050397251372</v>
       </c>
       <c r="E7" t="n">
-        <v>214.4975534923416</v>
+        <v>399.1373036689789</v>
       </c>
       <c r="F7" t="n">
-        <v>70.97668332239667</v>
+        <v>252.2473561710686</v>
       </c>
       <c r="G7" t="n">
-        <v>70.97668332239667</v>
+        <v>177.3931026290512</v>
       </c>
       <c r="H7" t="n">
-        <v>70.97668332239667</v>
+        <v>177.3931026290512</v>
       </c>
       <c r="I7" t="n">
-        <v>70.97668332239667</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J7" t="n">
         <v>52.71808759448422</v>
@@ -4758,19 +4758,19 @@
         <v>1047.751684421854</v>
       </c>
       <c r="U7" t="n">
-        <v>758.5992117351891</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="V7" t="n">
-        <v>503.9147235293023</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="W7" t="n">
-        <v>214.4975534923416</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="X7" t="n">
-        <v>214.4975534923416</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="Y7" t="n">
-        <v>214.4975534923416</v>
+        <v>1047.751684421854</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1859.165207684276</v>
+        <v>1318.707859975044</v>
       </c>
       <c r="C8" t="n">
-        <v>1490.202690743864</v>
+        <v>1318.707859975044</v>
       </c>
       <c r="D8" t="n">
-        <v>1131.936992137114</v>
+        <v>1318.707859975044</v>
       </c>
       <c r="E8" t="n">
-        <v>746.1487395388694</v>
+        <v>1318.707859975044</v>
       </c>
       <c r="F8" t="n">
-        <v>739.203238789666</v>
+        <v>907.7219551854364</v>
       </c>
       <c r="G8" t="n">
-        <v>370.9412028219747</v>
+        <v>490.6341734218639</v>
       </c>
       <c r="H8" t="n">
-        <v>52.71808759448419</v>
+        <v>172.4110581943734</v>
       </c>
       <c r="I8" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J8" t="n">
         <v>241.3579866082205</v>
@@ -4810,46 +4810,46 @@
         <v>644.825099628266</v>
       </c>
       <c r="L8" t="n">
-        <v>1033.218542125547</v>
+        <v>1033.218542125548</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.917954950954</v>
+        <v>1219.917954950955</v>
       </c>
       <c r="N8" t="n">
-        <v>1414.252167842937</v>
+        <v>1414.252167842938</v>
       </c>
       <c r="O8" t="n">
-        <v>1961.413372610014</v>
+        <v>1961.413372610015</v>
       </c>
       <c r="P8" t="n">
-        <v>2390.728418949308</v>
+        <v>2390.728418949309</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.904379724209</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.904379724209</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.904379724209</v>
+        <v>2479.689342221038</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.904379724209</v>
+        <v>2264.88948048875</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.904379724209</v>
+        <v>2011.197777233901</v>
       </c>
       <c r="V8" t="n">
-        <v>2635.904379724209</v>
+        <v>1680.13488989033</v>
       </c>
       <c r="W8" t="n">
-        <v>2635.904379724209</v>
+        <v>1327.366234620216</v>
       </c>
       <c r="X8" t="n">
-        <v>2635.904379724209</v>
+        <v>1318.707859975044</v>
       </c>
       <c r="Y8" t="n">
-        <v>2245.765047748398</v>
+        <v>1318.707859975044</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>199.5389224593631</v>
       </c>
       <c r="H9" t="n">
-        <v>98.6229446041677</v>
+        <v>98.62294460416771</v>
       </c>
       <c r="I9" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J9" t="n">
-        <v>52.71808759448419</v>
+        <v>171.3773394513799</v>
       </c>
       <c r="K9" t="n">
-        <v>120.3259072578412</v>
+        <v>500.8057437571897</v>
       </c>
       <c r="L9" t="n">
-        <v>624.6874471239598</v>
+        <v>1005.167283623308</v>
       </c>
       <c r="M9" t="n">
-        <v>1265.232796591064</v>
+        <v>1184.664619977913</v>
       </c>
       <c r="N9" t="n">
-        <v>1917.619130572806</v>
+        <v>1430.945911741486</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.3584353527</v>
+        <v>1980.381920494209</v>
       </c>
       <c r="P9" t="n">
-        <v>2612.326203833537</v>
+        <v>2404.349688975046</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.063145035514</v>
@@ -4944,25 +4944,25 @@
         <v>497.6377680871234</v>
       </c>
       <c r="D10" t="n">
-        <v>347.5211286747876</v>
+        <v>347.5211286747877</v>
       </c>
       <c r="E10" t="n">
-        <v>199.6080350923945</v>
+        <v>199.6080350923946</v>
       </c>
       <c r="F10" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G10" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H10" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I10" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J10" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K10" t="n">
         <v>153.766017190094</v>
@@ -5023,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5126,16 +5126,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.221377756499</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>148.6919058973624</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>148.6919058973624</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5363,16 +5363,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5477693179085</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5477693179085</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>762.5477693179085</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>614.6346757355154</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>467.744728237605</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2269.002343845332</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5758,16 +5758,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5834,13 +5834,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
         <v>1577.52840832642</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3195.647281583948</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>3026.711098656041</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>2876.594459243706</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4658.063647187913</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>4658.063647187913</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>4438.462182210855</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>4149.386955555053</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>3894.702467349166</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>3605.285297312205</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>3377.295746414188</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>3377.295746414188</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5992,25 +5992,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6220,58 +6220,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400667</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400667</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>363.7369613277309</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>363.7369613277309</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>216.8470138298206</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>216.8470138298206</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6405,31 +6405,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138365</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6469,31 +6469,31 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2231.58852738579</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2565.513299557011</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>3060.83890577277</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>3658.217393399321</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>3658.217393399321</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>4210.127123638608</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6666,7 +6666,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>806.8386896933887</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>2381.235169913446</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>2978.613657539998</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>3606.211621094605</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>4158.121351333892</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4581.74450082896</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>915.1035305473698</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>915.1035305473698</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473698</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7025,16 +7025,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7074,22 +7074,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7262,10 +7262,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7414,16 +7414,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,7 +7447,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852889</v>
@@ -7490,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>695.5020655703109</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>376.4492432300683</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>376.4492432300683</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>376.4492432300683</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>721.7774158311365</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>552.8412329032296</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2185.384895601574</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1124.218459804906</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>903.4258806613763</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -7993,13 +7993,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>368.9308216532355</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>24.38024910896277</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>111.9857720107746</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>459.9808678792276</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>240.9393132390589</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>16.7319868927548</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>208.7498431218925</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.839178026547145</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>186.9417816117001</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>282.4505134928071</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8458,7 +8458,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>251.580592581846</v>
+        <v>251.5805925818469</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>458.3127195243203</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O9" t="n">
-        <v>112.3504970819526</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>85.96822242532724</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>5.19973830615865</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>16.89590291932146</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.22040037418684</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>33.93343655154838</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>99.7605018907592</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>110.2232578818469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>14.48117232036716</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>116.6691671648112</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>913529.4203363681</v>
+        <v>913529.420336368</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>913529.4203363681</v>
+        <v>913529.420336368</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>913529.420336368</v>
+        <v>913529.4203363679</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>913529.4203363681</v>
+        <v>913529.4203363679</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>913529.4203363681</v>
+        <v>913529.4203363679</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>913529.420336368</v>
+        <v>913529.4203363679</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>913529.4203363681</v>
+        <v>913529.4203363679</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>913529.420336368</v>
+        <v>913529.4203363679</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>913529.4203363681</v>
+        <v>913529.4203363679</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>913529.420336368</v>
+        <v>913529.4203363679</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651774</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="G2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="G2" t="n">
-        <v>504466.6248062537</v>
       </c>
       <c r="H2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="K2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="K2" t="n">
-        <v>504466.6248062538</v>
-      </c>
       <c r="L2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.1413821403</v>
+        <v>172417.1413821404</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408963</v>
+        <v>184436.3405408964</v>
       </c>
       <c r="C4" t="n">
         <v>184436.3405408963</v>
@@ -26429,7 +26429,7 @@
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
@@ -26441,22 +26441,22 @@
         <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695106</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695052</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-547697.2876233417</v>
+        <v>-547697.2876233419</v>
       </c>
       <c r="C6" t="n">
-        <v>242148.6454988965</v>
+        <v>242148.6454988964</v>
       </c>
       <c r="D6" t="n">
-        <v>240033.6536915195</v>
+        <v>240033.6536915197</v>
       </c>
       <c r="E6" t="n">
-        <v>-378567.6577823408</v>
+        <v>-378915.0370366979</v>
       </c>
       <c r="F6" t="n">
-        <v>397056.6144506516</v>
+        <v>396709.2351962945</v>
       </c>
       <c r="G6" t="n">
-        <v>397056.6144506515</v>
+        <v>396709.2351962947</v>
       </c>
       <c r="H6" t="n">
-        <v>397056.6144506516</v>
+        <v>396709.2351962946</v>
       </c>
       <c r="I6" t="n">
-        <v>397056.6144506516</v>
+        <v>396709.2351962945</v>
       </c>
       <c r="J6" t="n">
-        <v>224639.4730685112</v>
+        <v>224292.0938141542</v>
       </c>
       <c r="K6" t="n">
-        <v>397056.6144506516</v>
+        <v>396709.2351962944</v>
       </c>
       <c r="L6" t="n">
-        <v>397056.6144506515</v>
+        <v>396709.2351962944</v>
       </c>
       <c r="M6" t="n">
-        <v>269032.4969842647</v>
+        <v>268685.1177299077</v>
       </c>
       <c r="N6" t="n">
-        <v>397056.6144506515</v>
+        <v>396709.2351962945</v>
       </c>
       <c r="O6" t="n">
-        <v>397056.6144506516</v>
+        <v>396709.2351962947</v>
       </c>
       <c r="P6" t="n">
-        <v>397056.6144506515</v>
+        <v>396709.2351962945</v>
       </c>
     </row>
   </sheetData>
@@ -26795,7 +26795,7 @@
         <v>658.9760949310528</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310523</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.732193168596</v>
+        <v>513.7321931685958</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.732193168596</v>
+        <v>513.7321931685958</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.732193168596</v>
+        <v>513.7321931685958</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>240.5991753725752</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.9581905386872</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>83.896972995466</v>
+        <v>154.9260532011785</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1557452255192</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27596,16 +27596,16 @@
         <v>286.2609479597986</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>177.7036697243918</v>
       </c>
       <c r="W4" t="n">
-        <v>169.2776298118785</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>288.9876573282186</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.1636514716173</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.9581905386872</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241028832</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>51.97189872172967</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.7043385723319</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>3.335386554685726</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9261537524328</v>
+        <v>92.82044274583559</v>
       </c>
       <c r="H7" t="n">
         <v>152.7599048465901</v>
       </c>
       <c r="I7" t="n">
-        <v>123.4282648842213</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.07600977063332</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>223.3958800207158</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>48.33748833792242</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>361.159309779749</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -29283,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29477,7 +29477,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>-2.796559587318037e-12</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -31846,7 +31846,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
@@ -31858,7 +31858,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32083,7 +32083,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,7 +32320,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32332,10 +32332,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>171.7382405950817</v>
+        <v>434.6640573992324</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L21" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33262,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>383.9182138639285</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33502,10 +33502,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>250.1723312270658</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33745,19 +33745,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33982,13 +33982,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34210,13 +34210,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34450,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428205</v>
+        <v>189.5279250463558</v>
       </c>
       <c r="K2" t="n">
         <v>81.87226576212618</v>
       </c>
       <c r="L2" t="n">
-        <v>556.5055067965436</v>
+        <v>138.8442922460932</v>
       </c>
       <c r="M2" t="n">
         <v>635.9938917992674</v>
@@ -34713,13 +34713,13 @@
         <v>631.5051423789012</v>
       </c>
       <c r="O2" t="n">
-        <v>538.7989603445242</v>
+        <v>550.668319954034</v>
       </c>
       <c r="P2" t="n">
-        <v>110.1290305176033</v>
+        <v>134.5092796265661</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.04297548607204</v>
+        <v>246.3579661459767</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>508.0634688859691</v>
       </c>
       <c r="M3" t="n">
-        <v>645.3903686673904</v>
+        <v>291.6710769281651</v>
       </c>
       <c r="N3" t="n">
-        <v>198.9952270518251</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="O3" t="n">
-        <v>553.4598375814872</v>
+        <v>159.5975183047577</v>
       </c>
       <c r="P3" t="n">
-        <v>349.5020423037001</v>
+        <v>427.0254977045784</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.1478786330741</v>
+        <v>232.2251663689232</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>37.16329676703685</v>
+        <v>189.5279250463558</v>
       </c>
       <c r="K5" t="n">
         <v>406.0176783332909</v>
       </c>
       <c r="L5" t="n">
-        <v>556.5055067965436</v>
+        <v>347.5941353679858</v>
       </c>
       <c r="M5" t="n">
         <v>186.480358306435</v>
       </c>
       <c r="N5" t="n">
-        <v>194.158217966917</v>
+        <v>631.5051423789012</v>
       </c>
       <c r="O5" t="n">
-        <v>550.668319954034</v>
+        <v>169.8681386912887</v>
       </c>
       <c r="P5" t="n">
         <v>431.927738689086</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.2518573138617</v>
       </c>
       <c r="K6" t="n">
-        <v>67.25502282329575</v>
+        <v>331.7202598358743</v>
       </c>
       <c r="L6" t="n">
-        <v>508.0634688859691</v>
+        <v>137.22312358251</v>
       </c>
       <c r="M6" t="n">
         <v>645.3903686673904</v>
       </c>
       <c r="N6" t="n">
-        <v>385.9370086635252</v>
+        <v>198.9952270518251</v>
       </c>
       <c r="O6" t="n">
         <v>553.4598375814872</v>
       </c>
       <c r="P6" t="n">
-        <v>427.0254977045784</v>
+        <v>391.0132425574483</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.1478786330741</v>
+        <v>232.2251663689232</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,7 +35178,7 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>392.3166085831118</v>
+        <v>392.3166085831128</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>658.9760949310523</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O9" t="n">
-        <v>273.4740452322159</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,10 +35740,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35980,10 +35980,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>37.7638331807514</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L21" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36773,7 +36773,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.402257299894</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>249.9438064495983</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,10 +37074,10 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37150,10 +37150,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.1905571410443</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37393,19 +37393,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1515624.822029438</v>
+        <v>1517385.352332223</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10955577.07554858</v>
+        <v>10955577.07554859</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10747457.44421851</v>
+        <v>10747457.4442185</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>141.3311946996865</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>412.9288914861689</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716173</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I2" t="n">
-        <v>118.9581905386872</v>
+        <v>118.9581905386867</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241028832</v>
+        <v>0.7530123241020306</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723319</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U2" t="n">
         <v>251.1557452255192</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>192.0902259822742</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261766</v>
+        <v>99.96876284261759</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323679</v>
+        <v>45.66663787323655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199448</v>
+        <v>21.29900499199404</v>
       </c>
       <c r="S3" t="n">
-        <v>148.0912566156105</v>
+        <v>148.0912566156103</v>
       </c>
       <c r="T3" t="n">
         <v>195.0452553973763</v>
@@ -819,13 +819,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>56.43202557716428</v>
       </c>
       <c r="V4" t="n">
-        <v>74.43397359943617</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>328.8966965493394</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>123.9412341579503</v>
+        <v>12.92889148616886</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241028832</v>
+        <v>0.7530123241020306</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011785</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261766</v>
+        <v>99.96876284261759</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323679</v>
+        <v>45.66663787323655</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199448</v>
+        <v>21.29900499199404</v>
       </c>
       <c r="S6" t="n">
-        <v>148.0912566156105</v>
+        <v>148.0912566156103</v>
       </c>
       <c r="T6" t="n">
         <v>195.0452553973763</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>74.10571100659716</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.4282648842213</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.4149600371267</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>255.4645187401871</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>43.64106479406453</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>8.571790898720044</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>129.2224443473098</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764733</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>54.32649042089665</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>176.5196562849262</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>160.3243999861102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>94.64226186542889</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>109.8058856274578</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>68.17501931583773</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>104.8913819999782</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>74.95497330697962</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>134.5665975534139</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>33.828918917875</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1462.069576420617</v>
+        <v>915.2703898552764</v>
       </c>
       <c r="C2" t="n">
-        <v>1462.069576420617</v>
+        <v>915.2703898552764</v>
       </c>
       <c r="D2" t="n">
-        <v>1462.069576420617</v>
+        <v>915.2703898552764</v>
       </c>
       <c r="E2" t="n">
-        <v>1319.310793895681</v>
+        <v>915.2703898552764</v>
       </c>
       <c r="F2" t="n">
-        <v>908.3248891060737</v>
+        <v>908.324889106073</v>
       </c>
       <c r="G2" t="n">
-        <v>491.224998716004</v>
+        <v>491.2249987160033</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8778760174006</v>
+        <v>172.8778760174001</v>
       </c>
       <c r="I2" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J2" t="n">
-        <v>240.3507333903765</v>
+        <v>72.94508437002453</v>
       </c>
       <c r="K2" t="n">
-        <v>321.4042764948814</v>
+        <v>474.9025859199842</v>
       </c>
       <c r="L2" t="n">
-        <v>458.8601258185137</v>
+        <v>612.3584352436185</v>
       </c>
       <c r="M2" t="n">
-        <v>1088.494078699788</v>
+        <v>1241.992388124896</v>
       </c>
       <c r="N2" t="n">
-        <v>1713.6841696549</v>
+        <v>1867.18247908001</v>
       </c>
       <c r="O2" t="n">
-        <v>2258.845806409394</v>
+        <v>2412.344115834506</v>
       </c>
       <c r="P2" t="n">
-        <v>2392.009993239694</v>
+        <v>2602.201833992997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R2" t="n">
         <v>2635.143761215016</v>
@@ -4369,13 +4369,13 @@
         <v>1835.535334681697</v>
       </c>
       <c r="W2" t="n">
-        <v>1835.535334681697</v>
+        <v>1482.766679411583</v>
       </c>
       <c r="X2" t="n">
-        <v>1462.069576420617</v>
+        <v>1109.300921150503</v>
       </c>
       <c r="Y2" t="n">
-        <v>1462.069576420617</v>
+        <v>915.2703898552764</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120982</v>
+        <v>966.4318812120978</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309712</v>
+        <v>791.9788519309708</v>
       </c>
       <c r="D3" t="n">
-        <v>643.0444422697201</v>
+        <v>643.0444422697196</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8069872642645</v>
+        <v>483.8069872642641</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911496</v>
+        <v>337.2724292911492</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640341</v>
+        <v>199.8245529640338</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815775</v>
+        <v>98.84600463815747</v>
       </c>
       <c r="I3" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J3" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K3" t="n">
-        <v>381.1211448319999</v>
+        <v>304.3729239851199</v>
       </c>
       <c r="L3" t="n">
-        <v>884.1039790291093</v>
+        <v>807.3557581822309</v>
       </c>
       <c r="M3" t="n">
-        <v>1172.858345187993</v>
+        <v>1446.292223162949</v>
       </c>
       <c r="N3" t="n">
-        <v>1825.244679169735</v>
+        <v>1643.297497944258</v>
       </c>
       <c r="O3" t="n">
-        <v>1983.246222291445</v>
+        <v>2191.222737149932</v>
       </c>
       <c r="P3" t="n">
-        <v>2406.001465018977</v>
+        <v>2613.977979877466</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R3" t="n">
         <v>2614.390233267651</v>
@@ -4445,7 +4445,7 @@
         <v>2039.648482162597</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.496373930855</v>
+        <v>1804.496373930854</v>
       </c>
       <c r="W3" t="n">
         <v>1550.259017202653</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.71808759448422</v>
+        <v>519.6840035171199</v>
       </c>
       <c r="C4" t="n">
-        <v>52.71808759448422</v>
+        <v>350.747820589213</v>
       </c>
       <c r="D4" t="n">
-        <v>52.71808759448422</v>
+        <v>200.6311811768773</v>
       </c>
       <c r="E4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="F4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919727</v>
+        <v>153.1475318919734</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482312</v>
+        <v>337.1890785482327</v>
       </c>
       <c r="M4" t="n">
-        <v>541.624208062813</v>
+        <v>541.6242080628155</v>
       </c>
       <c r="N4" t="n">
-        <v>746.632943554373</v>
+        <v>746.6329435543764</v>
       </c>
       <c r="O4" t="n">
-        <v>919.975396891705</v>
+        <v>919.9753968917094</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327081</v>
+        <v>1044.779129327086</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="T4" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="U4" t="n">
-        <v>1047.751684421854</v>
+        <v>990.7496383843202</v>
       </c>
       <c r="V4" t="n">
-        <v>972.565852503232</v>
+        <v>990.7496383843202</v>
       </c>
       <c r="W4" t="n">
-        <v>683.1486824662713</v>
+        <v>701.3324683473596</v>
       </c>
       <c r="X4" t="n">
-        <v>455.159131568254</v>
+        <v>701.3324683473596</v>
       </c>
       <c r="Y4" t="n">
-        <v>234.3665524247239</v>
+        <v>701.3324683473596</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1701.91362634561</v>
+        <v>1132.170175643889</v>
       </c>
       <c r="C5" t="n">
-        <v>1332.951109405198</v>
+        <v>763.2076587034769</v>
       </c>
       <c r="D5" t="n">
-        <v>974.6854107984475</v>
+        <v>404.9419600967264</v>
       </c>
       <c r="E5" t="n">
-        <v>588.8971582002032</v>
+        <v>72.7230746933532</v>
       </c>
       <c r="F5" t="n">
-        <v>177.9112534105956</v>
+        <v>65.77757394414972</v>
       </c>
       <c r="G5" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H5" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I5" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J5" t="n">
-        <v>240.3507333903765</v>
+        <v>72.94508437002453</v>
       </c>
       <c r="K5" t="n">
-        <v>642.3082349403345</v>
+        <v>153.9986274745311</v>
       </c>
       <c r="L5" t="n">
-        <v>986.4264289546404</v>
+        <v>704.9390792031114</v>
       </c>
       <c r="M5" t="n">
-        <v>1171.041983678011</v>
+        <v>1334.573032084389</v>
       </c>
       <c r="N5" t="n">
-        <v>1796.232074633123</v>
+        <v>1959.763123039503</v>
       </c>
       <c r="O5" t="n">
-        <v>1964.401531937499</v>
+        <v>2493.174093780568</v>
       </c>
       <c r="P5" t="n">
-        <v>2392.009993239694</v>
+        <v>2602.201833992997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R5" t="n">
         <v>2635.143761215016</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.652798385543</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.652798385543</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.652798385543</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.652798385543</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="W5" t="n">
-        <v>2478.652798385543</v>
+        <v>2282.375105944902</v>
       </c>
       <c r="X5" t="n">
-        <v>2478.652798385543</v>
+        <v>1908.909347683822</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.513466409731</v>
+        <v>1518.77001570801</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120986</v>
+        <v>966.4318812120981</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309716</v>
+        <v>791.9788519309711</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697203</v>
+        <v>643.0444422697199</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642648</v>
+        <v>483.8069872642644</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911498</v>
+        <v>337.2724292911494</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640342</v>
+        <v>199.8245529640338</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815775</v>
+        <v>98.8460046381575</v>
       </c>
       <c r="I6" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J6" t="n">
-        <v>170.7774263352073</v>
+        <v>170.7774263352079</v>
       </c>
       <c r="K6" t="n">
-        <v>499.1804835727229</v>
+        <v>499.1804835727247</v>
       </c>
       <c r="L6" t="n">
-        <v>635.0313759194078</v>
+        <v>1002.163317769836</v>
       </c>
       <c r="M6" t="n">
-        <v>1273.967840900124</v>
+        <v>1180.051769638054</v>
       </c>
       <c r="N6" t="n">
-        <v>1470.973115681431</v>
+        <v>1435.320983085768</v>
       </c>
       <c r="O6" t="n">
-        <v>2018.898354887104</v>
+        <v>1983.246222291442</v>
       </c>
       <c r="P6" t="n">
-        <v>2406.001465018977</v>
+        <v>2406.001465018976</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R6" t="n">
         <v>2614.390233267651</v>
@@ -4682,7 +4682,7 @@
         <v>2039.648482162597</v>
       </c>
       <c r="V6" t="n">
-        <v>1804.496373930855</v>
+        <v>1804.496373930854</v>
       </c>
       <c r="W6" t="n">
         <v>1550.259017202653</v>
@@ -4691,7 +4691,7 @@
         <v>1342.40751699712</v>
       </c>
       <c r="Y6" t="n">
-        <v>1134.647218232167</v>
+        <v>1134.647218232166</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>866.1032195916147</v>
+        <v>369.5673641047842</v>
       </c>
       <c r="C7" t="n">
-        <v>697.1670366637078</v>
+        <v>200.6311811768773</v>
       </c>
       <c r="D7" t="n">
-        <v>547.050397251372</v>
+        <v>200.6311811768773</v>
       </c>
       <c r="E7" t="n">
-        <v>399.1373036689789</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="F7" t="n">
-        <v>252.2473561710686</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G7" t="n">
-        <v>177.3931026290512</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H7" t="n">
-        <v>177.3931026290512</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I7" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J7" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919727</v>
+        <v>153.1475318919734</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482312</v>
+        <v>337.1890785482327</v>
       </c>
       <c r="M7" t="n">
-        <v>541.624208062813</v>
+        <v>541.6242080628155</v>
       </c>
       <c r="N7" t="n">
-        <v>746.632943554373</v>
+        <v>746.6329435543764</v>
       </c>
       <c r="O7" t="n">
-        <v>919.975396891705</v>
+        <v>919.9753968917094</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327081</v>
+        <v>1044.779129327086</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.751684421854</v>
+        <v>917.0295025661763</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.751684421854</v>
+        <v>917.0295025661763</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.751684421854</v>
+        <v>917.0295025661763</v>
       </c>
       <c r="U7" t="n">
-        <v>1047.751684421854</v>
+        <v>658.9845341417449</v>
       </c>
       <c r="V7" t="n">
-        <v>1047.751684421854</v>
+        <v>658.9845341417449</v>
       </c>
       <c r="W7" t="n">
-        <v>1047.751684421854</v>
+        <v>369.5673641047842</v>
       </c>
       <c r="X7" t="n">
-        <v>1047.751684421854</v>
+        <v>369.5673641047842</v>
       </c>
       <c r="Y7" t="n">
-        <v>1047.751684421854</v>
+        <v>369.5673641047842</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1318.707859975044</v>
+        <v>1952.072837110525</v>
       </c>
       <c r="C8" t="n">
-        <v>1318.707859975044</v>
+        <v>1583.110320170114</v>
       </c>
       <c r="D8" t="n">
-        <v>1318.707859975044</v>
+        <v>1224.844621563363</v>
       </c>
       <c r="E8" t="n">
-        <v>1318.707859975044</v>
+        <v>839.056368965119</v>
       </c>
       <c r="F8" t="n">
-        <v>907.7219551854364</v>
+        <v>428.0704641755114</v>
       </c>
       <c r="G8" t="n">
-        <v>490.6341734218639</v>
+        <v>415.0230864523429</v>
       </c>
       <c r="H8" t="n">
-        <v>172.4110581943734</v>
+        <v>96.79997122485241</v>
       </c>
       <c r="I8" t="n">
         <v>52.7180875944842</v>
@@ -4831,25 +4831,25 @@
         <v>2635.90437972421</v>
       </c>
       <c r="S8" t="n">
-        <v>2479.689342221038</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="T8" t="n">
-        <v>2264.88948048875</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="U8" t="n">
-        <v>2011.197777233901</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="V8" t="n">
-        <v>1680.13488989033</v>
+        <v>2304.841492380639</v>
       </c>
       <c r="W8" t="n">
-        <v>1327.366234620216</v>
+        <v>1952.072837110525</v>
       </c>
       <c r="X8" t="n">
-        <v>1318.707859975044</v>
+        <v>1952.072837110525</v>
       </c>
       <c r="Y8" t="n">
-        <v>1318.707859975044</v>
+        <v>1952.072837110525</v>
       </c>
     </row>
     <row r="9">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>666.5739510150303</v>
+        <v>519.6840035171199</v>
       </c>
       <c r="C10" t="n">
-        <v>497.6377680871234</v>
+        <v>350.747820589213</v>
       </c>
       <c r="D10" t="n">
-        <v>347.5211286747877</v>
+        <v>200.6311811768773</v>
       </c>
       <c r="E10" t="n">
-        <v>199.6080350923946</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="F10" t="n">
         <v>52.7180875944842</v>
@@ -5004,10 +5004,10 @@
         <v>1052.652769053829</v>
       </c>
       <c r="X10" t="n">
-        <v>1052.652769053829</v>
+        <v>922.1250474908898</v>
       </c>
       <c r="Y10" t="n">
-        <v>848.22241584527</v>
+        <v>701.3324683473596</v>
       </c>
     </row>
     <row r="11">
@@ -5032,19 +5032,19 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5120,19 +5120,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>949.9304447718133</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
         <v>2129.438138565707</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5477693179085</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>593.6115863900017</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>443.4949469776659</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>295.5818533952728</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>148.6919058973624</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>148.6919058973624</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5366,19 +5366,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703109</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>545.3854261579752</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>397.4723325755821</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>397.4723325755821</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5475,13 +5475,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5597,22 +5597,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>842.6091804069456</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1470.207143961552</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2022.116874200839</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2269.002343845332</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2049.400878868273</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5731,25 +5731,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5758,34 +5758,34 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>484.8243144841095</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>980.1499206998682</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.52840832642</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6071,16 +6071,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2371.250989330786</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2151.649524353727</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1862.574297697925</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1607.889809492038</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1318.472639455077</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1090.48308855706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>869.6905094135296</v>
       </c>
     </row>
     <row r="26">
@@ -6226,25 +6226,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6314,10 +6314,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="29">
@@ -6457,10 +6457,10 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6487,7 +6487,7 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,10 +6697,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>113.9333885650331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7077,16 +7077,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7636,10 +7636,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7648,10 +7648,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7848,10 +7848,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7996,10 +7996,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>24.38024910896277</v>
+        <v>81.64644236975994</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.839178026547145</v>
+        <v>6.839178026546477</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>186.9417816116887</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>111.9857720107746</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>459.9808678792276</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>208.7498431218925</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>368.930821653219</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8300,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>58.85246329939909</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>282.4505134928071</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>85.96822242532724</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23466,7 +23466,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>5.19973830615865</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>71.22040037418684</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>80.44045370237463</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>43.72409101823415</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>106.071312694665</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>10.85445046951733</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>191.8807364711622</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>977465.7732856798</v>
+        <v>977465.7732856793</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>977465.7732856798</v>
+        <v>977465.7732856793</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>913529.420336368</v>
+        <v>913529.4203363679</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>913529.4203363679</v>
+        <v>913529.420336368</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>913529.4203363679</v>
+        <v>913529.420336368</v>
       </c>
     </row>
     <row r="10">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651771</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.1061651772</v>
-      </c>
-      <c r="C2" t="n">
-        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
@@ -26325,37 +26325,37 @@
         <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="G2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="I2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="J2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="L2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="H2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062535</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="O2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="O2" t="n">
-        <v>504466.6248062538</v>
-      </c>
       <c r="P2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.9331222384</v>
+        <v>789845.9331222414</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.741448476983</v>
+        <v>2553.741448474159</v>
       </c>
       <c r="E3" t="n">
         <v>775624.2722329923</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.1413821404</v>
+        <v>172417.1413821403</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128024.1174663868</v>
+        <v>128024.1174663867</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408964</v>
+        <v>184436.3405408958</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408963</v>
+        <v>184436.3405408958</v>
       </c>
       <c r="D4" t="n">
         <v>183932.5854660025</v>
@@ -26429,13 +26429,13 @@
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="G4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="G4" t="n">
-        <v>6287.480531695051</v>
-      </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695071</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695052</v>
@@ -26444,7 +26444,7 @@
         <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695076</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695052</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538436</v>
+        <v>86566.12012538442</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538436</v>
+        <v>86566.12012538442</v>
       </c>
       <c r="D5" t="n">
         <v>86631.1255591778</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-547697.2876233419</v>
+        <v>-547697.2876233445</v>
       </c>
       <c r="C6" t="n">
-        <v>242148.6454988964</v>
+        <v>242148.645498897</v>
       </c>
       <c r="D6" t="n">
-        <v>240033.6536915197</v>
+        <v>240033.6536915225</v>
       </c>
       <c r="E6" t="n">
-        <v>-378915.0370366979</v>
+        <v>-378602.3957077766</v>
       </c>
       <c r="F6" t="n">
-        <v>396709.2351962945</v>
+        <v>397021.8765252156</v>
       </c>
       <c r="G6" t="n">
-        <v>396709.2351962947</v>
+        <v>397021.8765252156</v>
       </c>
       <c r="H6" t="n">
-        <v>396709.2351962946</v>
+        <v>397021.8765252158</v>
       </c>
       <c r="I6" t="n">
-        <v>396709.2351962945</v>
+        <v>397021.8765252159</v>
       </c>
       <c r="J6" t="n">
-        <v>224292.0938141542</v>
+        <v>224604.7351430753</v>
       </c>
       <c r="K6" t="n">
-        <v>396709.2351962944</v>
+        <v>397021.8765252158</v>
       </c>
       <c r="L6" t="n">
-        <v>396709.2351962944</v>
+        <v>397021.8765252159</v>
       </c>
       <c r="M6" t="n">
-        <v>268685.1177299077</v>
+        <v>268997.7590588289</v>
       </c>
       <c r="N6" t="n">
-        <v>396709.2351962945</v>
+        <v>397021.8765252159</v>
       </c>
       <c r="O6" t="n">
-        <v>396709.2351962947</v>
+        <v>397021.8765252157</v>
       </c>
       <c r="P6" t="n">
-        <v>396709.2351962945</v>
+        <v>397021.8765252158</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053372</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053372</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="D4" t="n">
         <v>658.9760949310526</v>
@@ -26807,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053372</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632727843</v>
+        <v>2.981900632724546</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685958</v>
+        <v>513.7321931685957</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27387,10 +27387,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>240.5991753725752</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011785</v>
+        <v>154.9260532011782</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>194.1477126737794</v>
       </c>
     </row>
     <row r="3">
@@ -27539,28 +27539,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9261537524328</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7599048465901</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842213</v>
+        <v>123.4282648842211</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063332</v>
+        <v>18.07600977063289</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371269</v>
+        <v>129.4149600371267</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937734</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T4" t="n">
         <v>223.3958800207158</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2609479597986</v>
+        <v>229.8289223826343</v>
       </c>
       <c r="V4" t="n">
-        <v>177.7036697243918</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>53.03367352292236</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>288.9876573282186</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716173</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I5" t="n">
-        <v>118.9581905386872</v>
+        <v>118.9581905386867</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.9260532011782</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723319</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U5" t="n">
         <v>251.1557452255192</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>92.82044274583559</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7599048465901</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.4282648842211</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063332</v>
+        <v>18.07600977063289</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371269</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937734</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T7" t="n">
         <v>223.3958800207158</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2609479597986</v>
+        <v>30.79642921961147</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>74.85497609982576</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>361.159309779749</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>96.48721104172736</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966178</v>
+        <v>2.373846028966191</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064414988</v>
+        <v>24.31115064415001</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171866</v>
+        <v>91.51769903171918</v>
       </c>
       <c r="J2" t="n">
-        <v>201.4772144009683</v>
+        <v>201.4772144009694</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071067</v>
+        <v>301.9621168071084</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160805</v>
+        <v>374.6107072160826</v>
       </c>
       <c r="M2" t="n">
-        <v>416.8265915337077</v>
+        <v>416.82659153371</v>
       </c>
       <c r="N2" t="n">
-        <v>423.5712815635079</v>
+        <v>423.5712815635102</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129754</v>
+        <v>399.9663501129777</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728729</v>
+        <v>341.3620262728747</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605215</v>
+        <v>256.3486653605229</v>
       </c>
       <c r="R2" t="n">
-        <v>149.1161056170468</v>
+        <v>149.1161056170477</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506684</v>
+        <v>54.09401638506714</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179945</v>
+        <v>10.39151099179951</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172942</v>
+        <v>0.1899076823172953</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.270119599366197</v>
+        <v>1.270119599366204</v>
       </c>
       <c r="H3" t="n">
-        <v>12.2666813938788</v>
+        <v>12.26668139387887</v>
       </c>
       <c r="I3" t="n">
-        <v>43.72999497817828</v>
+        <v>43.72999497817852</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401195</v>
+        <v>119.9984486401202</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976547</v>
+        <v>205.0964617976559</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623842</v>
+        <v>275.7775033623857</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394088</v>
+        <v>321.8193388394105</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351584</v>
+        <v>330.3369391351603</v>
       </c>
       <c r="O3" t="n">
-        <v>302.1937627492022</v>
+        <v>302.1937627492038</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789715</v>
+        <v>242.5371364789728</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.1296527190956</v>
+        <v>162.1296527190965</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064865</v>
+        <v>78.85882916064909</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822737</v>
+        <v>23.59191448822751</v>
       </c>
       <c r="T3" t="n">
-        <v>5.119473297445327</v>
+        <v>5.119473297445357</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08356049995830248</v>
+        <v>0.08356049995830293</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026018</v>
+        <v>1.064825606026024</v>
       </c>
       <c r="H4" t="n">
-        <v>9.467267660849512</v>
+        <v>9.467267660849563</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303698</v>
+        <v>32.02221004303716</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034603946</v>
+        <v>75.28317034603988</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546591</v>
+        <v>123.7133749546598</v>
       </c>
       <c r="L4" t="n">
-        <v>158.3105269177227</v>
+        <v>158.3105269177236</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609693</v>
+        <v>166.9162538609702</v>
       </c>
       <c r="N4" t="n">
-        <v>162.947358420327</v>
+        <v>162.9473584203279</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953866</v>
+        <v>150.5082592953875</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324558</v>
+        <v>128.7858169324565</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550592</v>
+        <v>89.16462415550642</v>
       </c>
       <c r="R4" t="n">
-        <v>47.87843134004257</v>
+        <v>47.87843134004284</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319887</v>
+        <v>18.55700624319897</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565711</v>
+        <v>4.549709407565737</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232831</v>
+        <v>0.05808139669232864</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966178</v>
+        <v>2.373846028966191</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064414988</v>
+        <v>24.31115064415001</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171866</v>
+        <v>91.51769903171918</v>
       </c>
       <c r="J5" t="n">
-        <v>201.4772144009683</v>
+        <v>201.4772144009694</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071067</v>
+        <v>301.9621168071084</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160805</v>
+        <v>374.6107072160826</v>
       </c>
       <c r="M5" t="n">
-        <v>416.8265915337077</v>
+        <v>416.82659153371</v>
       </c>
       <c r="N5" t="n">
-        <v>423.5712815635079</v>
+        <v>423.5712815635102</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129754</v>
+        <v>399.9663501129777</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728729</v>
+        <v>341.3620262728747</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605215</v>
+        <v>256.3486653605229</v>
       </c>
       <c r="R5" t="n">
-        <v>149.1161056170468</v>
+        <v>149.1161056170477</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506684</v>
+        <v>54.09401638506714</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179945</v>
+        <v>10.39151099179951</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172942</v>
+        <v>0.1899076823172953</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.270119599366197</v>
+        <v>1.270119599366204</v>
       </c>
       <c r="H6" t="n">
-        <v>12.2666813938788</v>
+        <v>12.26668139387887</v>
       </c>
       <c r="I6" t="n">
-        <v>43.72999497817828</v>
+        <v>43.72999497817852</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401195</v>
+        <v>119.9984486401202</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976547</v>
+        <v>205.0964617976559</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623842</v>
+        <v>275.7775033623857</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394088</v>
+        <v>321.8193388394105</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351584</v>
+        <v>330.3369391351603</v>
       </c>
       <c r="O6" t="n">
-        <v>302.1937627492022</v>
+        <v>302.1937627492038</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789715</v>
+        <v>242.5371364789728</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.1296527190956</v>
+        <v>162.1296527190965</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064865</v>
+        <v>78.85882916064909</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822737</v>
+        <v>23.59191448822751</v>
       </c>
       <c r="T6" t="n">
-        <v>5.119473297445327</v>
+        <v>5.119473297445357</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08356049995830248</v>
+        <v>0.08356049995830293</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026018</v>
+        <v>1.064825606026024</v>
       </c>
       <c r="H7" t="n">
-        <v>9.467267660849512</v>
+        <v>9.467267660849563</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303698</v>
+        <v>32.02221004303716</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034603946</v>
+        <v>75.28317034603988</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546591</v>
+        <v>123.7133749546598</v>
       </c>
       <c r="L7" t="n">
-        <v>158.3105269177227</v>
+        <v>158.3105269177236</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609693</v>
+        <v>166.9162538609702</v>
       </c>
       <c r="N7" t="n">
-        <v>162.947358420327</v>
+        <v>162.9473584203279</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953866</v>
+        <v>150.5082592953875</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324558</v>
+        <v>128.7858169324565</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550592</v>
+        <v>89.16462415550642</v>
       </c>
       <c r="R7" t="n">
-        <v>47.87843134004257</v>
+        <v>47.87843134004284</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319887</v>
+        <v>18.55700624319897</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565711</v>
+        <v>4.549709407565737</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232831</v>
+        <v>0.05808139669232864</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31840,22 +31840,22 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32086,22 +32086,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32317,25 +32317,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>434.6640573992324</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33034,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543356</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>189.5279250463558</v>
+        <v>20.43130987428316</v>
       </c>
       <c r="K2" t="n">
-        <v>81.87226576212618</v>
+        <v>406.0176783332926</v>
       </c>
       <c r="L2" t="n">
-        <v>138.8442922460932</v>
+        <v>138.8442922460953</v>
       </c>
       <c r="M2" t="n">
-        <v>635.9938917992674</v>
+        <v>635.9938917992698</v>
       </c>
       <c r="N2" t="n">
-        <v>631.5051423789012</v>
+        <v>631.5051423789034</v>
       </c>
       <c r="O2" t="n">
-        <v>550.668319954034</v>
+        <v>550.6683199540363</v>
       </c>
       <c r="P2" t="n">
-        <v>134.5092796265661</v>
+        <v>191.7754728873651</v>
       </c>
       <c r="Q2" t="n">
-        <v>246.3579661459767</v>
+        <v>34.04297548607346</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>331.7202598358743</v>
+        <v>254.1968044349856</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859691</v>
+        <v>508.0634688859707</v>
       </c>
       <c r="M3" t="n">
-        <v>291.6710769281651</v>
+        <v>645.3903686673921</v>
       </c>
       <c r="N3" t="n">
-        <v>658.9760949310528</v>
+        <v>198.995227051827</v>
       </c>
       <c r="O3" t="n">
-        <v>159.5975183047577</v>
+        <v>553.459837581489</v>
       </c>
       <c r="P3" t="n">
-        <v>427.0254977045784</v>
+        <v>427.0254977045797</v>
       </c>
       <c r="Q3" t="n">
-        <v>232.2251663689232</v>
+        <v>22.14787863307501</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.4438831287763</v>
+        <v>101.443883128777</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780389</v>
+        <v>185.9005521780397</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228099</v>
+        <v>206.5001308228108</v>
       </c>
       <c r="N4" t="n">
-        <v>207.0795307995556</v>
+        <v>207.0795307995565</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094263</v>
+        <v>175.0933872094272</v>
       </c>
       <c r="P4" t="n">
-        <v>126.0643761973493</v>
+        <v>126.06437619735</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903811534</v>
+        <v>3.002580903812031</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>189.5279250463558</v>
+        <v>20.43130987428316</v>
       </c>
       <c r="K5" t="n">
-        <v>406.0176783332909</v>
+        <v>81.87226576212782</v>
       </c>
       <c r="L5" t="n">
-        <v>347.5941353679858</v>
+        <v>556.5055067965458</v>
       </c>
       <c r="M5" t="n">
-        <v>186.480358306435</v>
+        <v>635.9938917992698</v>
       </c>
       <c r="N5" t="n">
-        <v>631.5051423789012</v>
+        <v>631.5051423789034</v>
       </c>
       <c r="O5" t="n">
-        <v>169.8681386912887</v>
+        <v>538.79896034451</v>
       </c>
       <c r="P5" t="n">
-        <v>431.927738689086</v>
+        <v>110.1290305176052</v>
       </c>
       <c r="Q5" t="n">
-        <v>246.3579661459767</v>
+        <v>34.04297548607346</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.2518573138617</v>
+        <v>119.2518573138624</v>
       </c>
       <c r="K6" t="n">
-        <v>331.7202598358743</v>
+        <v>331.7202598358755</v>
       </c>
       <c r="L6" t="n">
-        <v>137.22312358251</v>
+        <v>508.0634688859707</v>
       </c>
       <c r="M6" t="n">
-        <v>645.3903686673904</v>
+        <v>179.6853049173922</v>
       </c>
       <c r="N6" t="n">
-        <v>198.9952270518251</v>
+        <v>257.847690351226</v>
       </c>
       <c r="O6" t="n">
-        <v>553.4598375814872</v>
+        <v>553.459837581489</v>
       </c>
       <c r="P6" t="n">
-        <v>391.0132425574483</v>
+        <v>427.0254977045797</v>
       </c>
       <c r="Q6" t="n">
-        <v>232.2251663689232</v>
+        <v>232.2251663689241</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.4438831287763</v>
+        <v>101.443883128777</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780389</v>
+        <v>185.9005521780397</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228099</v>
+        <v>206.5001308228108</v>
       </c>
       <c r="N7" t="n">
-        <v>207.0795307995556</v>
+        <v>207.0795307995565</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094263</v>
+        <v>175.0933872094272</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0643761973493</v>
+        <v>126.06437619735</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903811534</v>
+        <v>3.002580903812031</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35734,22 +35734,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35965,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>300.6896499849021</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243171</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36202,22 +36202,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997665</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
